--- a/ANEXO VI.xlsx
+++ b/ANEXO VI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LucasBasilio\Downloads\water-temple\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LucasBasilio\Downloads\PROJETO-WATER-TEMPLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BCE2D4-F00B-4ED8-865B-6AED5BB1D5B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B9022E-8AE2-490A-B639-037869BB8E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="972" yWindow="1368" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATRIZ IPv4" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,22 @@
     <sheet name="FILIAL IPv4" sheetId="3" r:id="rId3"/>
     <sheet name="FILIAL IPv6" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="141">
   <si>
     <t>VLAN</t>
   </si>
@@ -149,18 +159,6 @@
   </si>
   <si>
     <t>2001:DB8:0:10::1</t>
-  </si>
-  <si>
-    <t>2001:DB8:0:20::1</t>
-  </si>
-  <si>
-    <t>2001:DB8:0:30::1</t>
-  </si>
-  <si>
-    <t>2001:DB8:0:40::1</t>
-  </si>
-  <si>
-    <t>2001:DB8:0:50::1</t>
   </si>
   <si>
     <t>1º IP VÁLIDO</t>
@@ -328,22 +326,10 @@
     <t>25 IP VÁLIDO DA REDE</t>
   </si>
   <si>
-    <t>2001:DB8:0:10::A</t>
-  </si>
-  <si>
-    <t>2001:DB8:0:30::19</t>
-  </si>
-  <si>
-    <t>2001:DB8:0:20::14</t>
-  </si>
-  <si>
     <t>SRV-01</t>
   </si>
   <si>
     <t>30º IP VÁLIDO DA REDE</t>
-  </si>
-  <si>
-    <t>2001:DB8:0:40::1E</t>
   </si>
   <si>
     <t>G0/0.10</t>
@@ -402,12 +388,81 @@
   <si>
     <t>2001:DB8:1:30::1E</t>
   </si>
+  <si>
+    <t>2001:DB8:0:10::1/64</t>
+  </si>
+  <si>
+    <t>2001:DB8:0:20::1/64</t>
+  </si>
+  <si>
+    <t>2001:DB8:0:30::1/64</t>
+  </si>
+  <si>
+    <t>2001:DB8:0:40::1/64</t>
+  </si>
+  <si>
+    <t>2001:DB8:0:50::1/64</t>
+  </si>
+  <si>
+    <t>2001:DB8:0:10::A/64</t>
+  </si>
+  <si>
+    <t>2001:DB8:0:20::14/64</t>
+  </si>
+  <si>
+    <t>2001:DB8:0:30::19/64</t>
+  </si>
+  <si>
+    <t>2001:DB8:0:40::1E/64</t>
+  </si>
+  <si>
+    <t>172.16.0.119</t>
+  </si>
+  <si>
+    <t>172.16.0.118</t>
+  </si>
+  <si>
+    <t>fa0</t>
+  </si>
+  <si>
+    <t>2º IP VÁLIDO DA REDE</t>
+  </si>
+  <si>
+    <t>172.16.0.114</t>
+  </si>
+  <si>
+    <t>172.16.0.98</t>
+  </si>
+  <si>
+    <t>WR-01</t>
+  </si>
+  <si>
+    <t>INTERNET</t>
+  </si>
+  <si>
+    <t>172.16.0.122</t>
+  </si>
+  <si>
+    <t>189.100.0.0</t>
+  </si>
+  <si>
+    <t>189.100.0.1</t>
+  </si>
+  <si>
+    <t>S0/0/0</t>
+  </si>
+  <si>
+    <t>INTERFACE</t>
+  </si>
+  <si>
+    <t>189.100.0.2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,8 +508,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,6 +595,12 @@
         <bgColor rgb="FF8EAADB"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor rgb="FFA8D08D"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -577,7 +645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -723,6 +791,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -941,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E2" s="4">
         <v>26</v>
@@ -1040,10 +1112,10 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E3" s="4">
         <v>26</v>
@@ -1079,7 +1151,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E4" s="4">
         <v>26</v>
@@ -1115,7 +1187,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E5" s="4">
         <v>26</v>
@@ -1155,7 +1227,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E6" s="7">
         <v>27</v>
@@ -1188,10 +1260,10 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E7" s="7">
         <v>27</v>
@@ -1227,7 +1299,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E8" s="7">
         <v>27</v>
@@ -1263,7 +1335,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E9" s="9">
         <v>27</v>
@@ -1303,7 +1375,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E10" s="10">
         <v>28</v>
@@ -1336,10 +1408,10 @@
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="37" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E11" s="10">
         <v>28</v>
@@ -1375,7 +1447,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E12" s="10">
         <v>28</v>
@@ -1411,7 +1483,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E13" s="10">
         <v>28</v>
@@ -1451,7 +1523,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E14" s="12">
         <v>29</v>
@@ -1484,10 +1556,10 @@
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="38" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E15" s="12">
         <v>29</v>
@@ -1523,7 +1595,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="E16" s="12">
         <v>29</v>
@@ -1559,7 +1631,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="E17" s="12">
         <v>29</v>
@@ -1599,7 +1671,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E18" s="14">
         <v>29</v>
@@ -1632,10 +1704,10 @@
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="39" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E19" s="14">
         <v>29</v>
@@ -1671,7 +1743,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E20" s="14">
         <v>29</v>
@@ -1707,7 +1779,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E21" s="14">
         <v>29</v>
@@ -1876,13 +1948,13 @@
         <v>34</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F26" s="4">
         <v>30</v>
@@ -1918,13 +1990,13 @@
         <v>34</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F27" s="7">
         <v>27</v>
@@ -1960,13 +2032,13 @@
         <v>34</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F28" s="10">
         <v>28</v>
@@ -1994,7 +2066,7 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>40</v>
       </c>
@@ -2002,16 +2074,16 @@
         <v>34</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F29" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G29" s="22">
         <v>255255255248</v>
@@ -2036,14 +2108,28 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
+        <v>50</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="14">
+        <v>29</v>
+      </c>
+      <c r="G30" s="23">
+        <v>255255255248</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -2064,28 +2150,14 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
-        <v>50</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="14">
-        <v>29</v>
-      </c>
-      <c r="G31" s="23">
-        <v>255255255248</v>
-      </c>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -2106,14 +2178,25 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="3"/>
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" s="12">
+        <v>29</v>
+      </c>
+      <c r="G32" s="22">
+        <v>255255255248</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -2132,16 +2215,26 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-    </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+    </row>
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="48">
+        <v>28</v>
+      </c>
+      <c r="G33" s="21">
+        <v>255255255240</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -2160,24 +2253,8 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-    </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -2200,21 +2277,21 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>72</v>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="26" t="s">
+        <v>11</v>
       </c>
-      <c r="B35" s="10">
-        <v>30</v>
+      <c r="B35" s="26" t="s">
+        <v>0</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>71</v>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>73</v>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
       </c>
-      <c r="E35" s="10">
-        <v>28</v>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -2238,18 +2315,18 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B36" s="10">
         <v>30</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E36" s="10">
         <v>28</v>
@@ -2276,12 +2353,22 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="10">
+        <v>30</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="10">
+        <v>28</v>
+      </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -2304,12 +2391,7 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -2332,14 +2414,28 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="14">
+        <v>29</v>
+      </c>
+      <c r="G39" s="23">
+        <v>255255255248</v>
+      </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -2360,12 +2456,7 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -2388,13 +2479,25 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="47" t="s">
+        <v>4</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -2416,13 +2519,25 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" s="48">
+        <v>28</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -2444,7 +2559,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2466,11 +2581,6 @@
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
@@ -2501,11 +2611,6 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -2529,11 +2634,6 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -2557,11 +2657,6 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -29241,13 +29336,6 @@
       <c r="Z999" s="3"/>
     </row>
     <row r="1000" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="3"/>
-      <c r="B1000" s="3"/>
-      <c r="C1000" s="3"/>
-      <c r="D1000" s="3"/>
-      <c r="E1000" s="3"/>
-      <c r="F1000" s="3"/>
-      <c r="G1000" s="3"/>
       <c r="H1000" s="3"/>
       <c r="I1000" s="3"/>
       <c r="J1000" s="3"/>
@@ -29279,7 +29367,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29287,7 +29375,7 @@
     <col min="1" max="1" width="20.19921875" customWidth="1"/>
     <col min="2" max="2" width="17.59765625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="20.19921875" customWidth="1"/>
+    <col min="4" max="4" width="20.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -29570,7 +29658,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -29606,7 +29694,7 @@
         <v>35</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -29642,7 +29730,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -29678,7 +29766,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -29714,7 +29802,7 @@
         <v>35</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -29840,13 +29928,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -29876,13 +29964,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -29912,13 +30000,13 @@
         <v>30</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -29944,17 +30032,17 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="51">
         <v>40</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>104</v>
+      <c r="B20" s="51" t="s">
+        <v>97</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>105</v>
+      <c r="C20" s="51" t="s">
+        <v>98</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>106</v>
+      <c r="D20" s="51" t="s">
+        <v>126</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -57414,8 +57502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="A23:E25"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -57424,9 +57512,10 @@
     <col min="2" max="2" width="17.59765625" customWidth="1"/>
     <col min="3" max="3" width="22.8984375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="7.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="26" width="7.59765625" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="26" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -57457,7 +57546,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>20</v>
@@ -57473,10 +57562,10 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E3" s="4">
         <v>27</v>
@@ -57492,7 +57581,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E4" s="4">
         <v>27</v>
@@ -57508,7 +57597,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E5" s="4">
         <v>27</v>
@@ -57525,10 +57614,10 @@
         <v>24</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E6" s="7">
         <v>28</v>
@@ -57541,10 +57630,10 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="41" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E7" s="7">
         <v>28</v>
@@ -57560,7 +57649,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E8" s="7">
         <v>28</v>
@@ -57576,7 +57665,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E9" s="7">
         <v>28</v>
@@ -57593,10 +57682,10 @@
         <v>25</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E10" s="10">
         <v>29</v>
@@ -57609,10 +57698,10 @@
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="43" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E11" s="10">
         <v>29</v>
@@ -57628,7 +57717,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E12" s="10">
         <v>29</v>
@@ -57644,7 +57733,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E13" s="10">
         <v>29</v>
@@ -57672,154 +57761,228 @@
       <c r="B15" s="3"/>
       <c r="C15" s="18"/>
     </row>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="18"/>
       <c r="B16" s="3"/>
       <c r="C16" s="18"/>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="18"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="18"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B17" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C17" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D17" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E17" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F17" s="26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>90</v>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>86</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>107</v>
+      <c r="B18" s="4" t="s">
+        <v>99</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C18" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>75</v>
+      <c r="D18" s="4" t="s">
+        <v>71</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E18" s="4">
         <v>27</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F18" s="19">
         <v>255255255224</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>90</v>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>86</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>108</v>
+      <c r="B19" s="9" t="s">
+        <v>100</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C19" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>80</v>
+      <c r="D19" s="9" t="s">
+        <v>76</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E19" s="9">
         <v>28</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F19" s="20">
         <v>255255255240</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>90</v>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>86</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>109</v>
+      <c r="B20" s="10" t="s">
+        <v>101</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C20" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="10">
+        <v>29</v>
+      </c>
+      <c r="F20" s="21">
+        <v>255255255248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="48">
+        <v>28</v>
+      </c>
+      <c r="F21" s="21">
+        <v>255255255240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="12">
+        <v>29</v>
+      </c>
+      <c r="F22" s="22">
+        <v>255255255248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="50">
+        <v>20</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="48">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="50">
+        <v>20</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="48">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="52"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="10">
-        <v>29</v>
+      <c r="B30" s="48" t="s">
+        <v>138</v>
       </c>
-      <c r="F21" s="21">
-        <v>255255255248</v>
+      <c r="C30" s="48" t="s">
+        <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
-        <v>0</v>
+      <c r="D30" s="48" t="s">
+        <v>136</v>
       </c>
-      <c r="B23" s="49" t="s">
-        <v>11</v>
+      <c r="E30" s="48" t="s">
+        <v>140</v>
       </c>
-      <c r="C23" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="50">
-        <v>20</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="48">
+      <c r="F30" s="48">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50">
-        <v>20</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="48">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -58791,7 +58954,7 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -58799,8 +58962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -58831,7 +58994,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -58842,7 +59005,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -58853,7 +59016,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -58883,7 +59046,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>36</v>
@@ -58900,7 +59063,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>37</v>
@@ -58909,7 +59072,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -58917,7 +59080,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>38</v>
@@ -58926,119 +59089,113 @@
         <v>35</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
+      <c r="B10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C10" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D10" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="34"/>
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A12" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>113</v>
+      <c r="B13" s="4" t="s">
+        <v>105</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>20</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>30</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>40</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>20</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>30</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>40</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
